--- a/output/SANTANDER_29549588000119.xlsx
+++ b/output/SANTANDER_29549588000119.xlsx
@@ -757,10 +757,10 @@
         <v>44165</v>
       </c>
       <c r="B34">
-        <v>0.2355417499999999</v>
+        <v>0.2354862799999999</v>
       </c>
       <c r="C34">
-        <v>0.03275338354058688</v>
+        <v>0.03270701778225882</v>
       </c>
     </row>
   </sheetData>

--- a/output/SANTANDER_29549588000119.xlsx
+++ b/output/SANTANDER_29549588000119.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SANTANDER ACTIVE PORTFOLIO MULT CRÉD PRIV FIC FI</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,381 +383,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43190</v>
       </c>
       <c r="B2">
-        <v>0.0007271699999999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43220</v>
       </c>
       <c r="B3">
-        <v>0.008685470000000084</v>
-      </c>
-      <c r="C3">
         <v>0.007952517168090978</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43251</v>
       </c>
       <c r="B4">
-        <v>0.002841349999999965</v>
-      </c>
-      <c r="C4">
         <v>-0.005793798140068529</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43281</v>
       </c>
       <c r="B5">
-        <v>0.009527800000000086</v>
-      </c>
-      <c r="C5">
         <v>0.006667505283861841</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43312</v>
       </c>
       <c r="B6">
-        <v>0.02257986000000001</v>
-      </c>
-      <c r="C6">
         <v>0.01292887625283812</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43343</v>
       </c>
       <c r="B7">
-        <v>0.02186167999999999</v>
-      </c>
-      <c r="C7">
         <v>-0.0007023216749056926</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43373</v>
       </c>
       <c r="B8">
-        <v>0.02709045999999993</v>
-      </c>
-      <c r="C8">
         <v>0.005116915627954688</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43404</v>
       </c>
       <c r="B9">
-        <v>0.05334521000000003</v>
-      </c>
-      <c r="C9">
         <v>0.02556225670716494</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43434</v>
       </c>
       <c r="B10">
-        <v>0.05503031000000003</v>
-      </c>
-      <c r="C10">
         <v>0.001599760443207421</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43465</v>
       </c>
       <c r="B11">
-        <v>0.05781309000000001</v>
-      </c>
-      <c r="C11">
         <v>0.00263763038239162</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43496</v>
       </c>
       <c r="B12">
-        <v>0.08845645000000002</v>
-      </c>
-      <c r="C12">
         <v>0.02896859595488643</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43524</v>
       </c>
       <c r="B13">
-        <v>0.08979313999999983</v>
-      </c>
-      <c r="C13">
         <v>0.001228060158033673</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43555</v>
       </c>
       <c r="B14">
-        <v>0.09196451999999988</v>
-      </c>
-      <c r="C14">
         <v>0.001992469873686398</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43585</v>
       </c>
       <c r="B15">
-        <v>0.09819236000000009</v>
-      </c>
-      <c r="C15">
         <v>0.005703335489325445</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43616</v>
       </c>
       <c r="B16">
-        <v>0.10884676</v>
-      </c>
-      <c r="C16">
         <v>0.009701761174153445</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43646</v>
       </c>
       <c r="B17">
-        <v>0.1239414599999999</v>
-      </c>
-      <c r="C17">
         <v>0.0136129720936371</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43677</v>
       </c>
       <c r="B18">
-        <v>0.13051944</v>
-      </c>
-      <c r="C18">
         <v>0.005852600187913781</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43708</v>
       </c>
       <c r="B19">
-        <v>0.13350091</v>
-      </c>
-      <c r="C19">
         <v>0.002637256728641457</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43738</v>
       </c>
       <c r="B20">
-        <v>0.1467300699999998</v>
-      </c>
-      <c r="C20">
         <v>0.01167106253139205</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43769</v>
       </c>
       <c r="B21">
-        <v>0.1710575599999999</v>
-      </c>
-      <c r="C21">
         <v>0.02121466126723281</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43799</v>
       </c>
       <c r="B22">
-        <v>0.16840298</v>
-      </c>
-      <c r="C22">
         <v>-0.002266822819537495</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43830</v>
       </c>
       <c r="B23">
-        <v>0.1979754499999999</v>
-      </c>
-      <c r="C23">
         <v>0.02531016310827972</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43861</v>
       </c>
       <c r="B24">
-        <v>0.2021367000000001</v>
-      </c>
-      <c r="C24">
         <v>0.003473568677889061</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43890</v>
       </c>
       <c r="B25">
-        <v>0.1803674000000002</v>
-      </c>
-      <c r="C25">
         <v>-0.01810883903635907</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43921</v>
       </c>
       <c r="B26">
-        <v>0.02961077000000012</v>
-      </c>
-      <c r="C26">
         <v>-0.1277200895246684</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43951</v>
       </c>
       <c r="B27">
-        <v>0.07879287000000001</v>
-      </c>
-      <c r="C27">
         <v>0.04776766272559474</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43982</v>
       </c>
       <c r="B28">
-        <v>0.12258193</v>
-      </c>
-      <c r="C28">
         <v>0.0405907947834323</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44012</v>
       </c>
       <c r="B29">
-        <v>0.1712873500000001</v>
-      </c>
-      <c r="C29">
         <v>0.04338696241084161</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44043</v>
       </c>
       <c r="B30">
-        <v>0.21983709</v>
-      </c>
-      <c r="C30">
         <v>0.0414498969872763</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44074</v>
       </c>
       <c r="B31">
-        <v>0.21916325</v>
-      </c>
-      <c r="C31">
         <v>-0.0005524016325818559</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44104</v>
       </c>
       <c r="B32">
-        <v>0.1983935799999998</v>
-      </c>
-      <c r="C32">
         <v>-0.01703600399700378</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44135</v>
       </c>
       <c r="B33">
-        <v>0.1963570100000001</v>
-      </c>
-      <c r="C33">
         <v>-0.001699416647408802</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44165</v>
       </c>
       <c r="B34">
-        <v>0.2354862799999999</v>
-      </c>
-      <c r="C34">
-        <v>0.03270701778225882</v>
+        <v>0.02849890936819932</v>
       </c>
     </row>
   </sheetData>
